--- a/dfno5.xlsx
+++ b/dfno5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,29 +752,128 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>X5 - 2019 - Hybrid</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>70246.25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>73000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>64243.19897059775</v>
+      </c>
+      <c r="H10" t="n">
+        <v>76249.30102940225</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>i8 - 2019 - Hybrid</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>68527.66666666667</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>64750</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>74226</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>9476</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>64477.57695835878</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>72577.75637497456</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>i8 - 2018 - Hybrid</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>59445</v>
+      </c>
+      <c r="D12" t="n">
+        <v>55485</v>
+      </c>
+      <c r="E12" t="n">
+        <v>64980</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9495</v>
+      </c>
+      <c r="G12" t="n">
+        <v>47174.45976378481</v>
+      </c>
+      <c r="H12" t="n">
+        <v>71715.54023621519</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>i8 - 2017 - Hybrid</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>53781</v>
+      </c>
+      <c r="D13" t="n">
+        <v>48898</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59950</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11052</v>
+      </c>
+      <c r="G13" t="n">
+        <v>39777.63941267206</v>
+      </c>
+      <c r="H13" t="n">
+        <v>67784.36058732794</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
